--- a/source/BOM.xlsx
+++ b/source/BOM.xlsx
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>47</v>
